--- a/HW1/Result/p2a/Draft for EE569_ver2.xlsx
+++ b/HW1/Result/p2a/Draft for EE569_ver2.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tenten/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tenten/Documents/Github/569/HW1/Result/p2a/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11340" yWindow="7500" windowWidth="32120" windowHeight="21600" tabRatio="500" activeTab="1"/>
+    <workbookView minimized="1" xWindow="4440" yWindow="1660" windowWidth="32120" windowHeight="21600" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1182,11 +1182,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2120094144"/>
-        <c:axId val="-2120089296"/>
+        <c:axId val="2099697264"/>
+        <c:axId val="2099201392"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2120094144"/>
+        <c:axId val="2099697264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1284,7 +1284,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2120089296"/>
+        <c:crossAx val="2099201392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1293,7 +1293,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2120089296"/>
+        <c:axId val="2099201392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -1401,7 +1401,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2120094144"/>
+        <c:crossAx val="2099697264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1490,6 +1490,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2327,11 +2328,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2105716816"/>
-        <c:axId val="-2117068176"/>
+        <c:axId val="2098411424"/>
+        <c:axId val="2098406064"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2105716816"/>
+        <c:axId val="2098411424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2363,6 +2364,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2428,7 +2430,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2117068176"/>
+        <c:crossAx val="2098406064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2437,7 +2439,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2117068176"/>
+        <c:axId val="2098406064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="255.0"/>
@@ -2485,6 +2487,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2545,7 +2548,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2105716816"/>
+        <c:crossAx val="2098411424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2629,11 +2632,12 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1600"/>
-              <a:t>Enhanced image: PDF for green channel</a:t>
+              <a:t>Enhanced image2: PDF for green channel</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2685,777 +2689,777 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Green!$D$2:$D$257</c:f>
+              <c:f>Green!$G$2:$G$257</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="256"/>
                 <c:pt idx="0">
-                  <c:v>0.00140762</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0137749</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.00419998</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.00356293</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0037384</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.00220871</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.00512314</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.00434113</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.00445175</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.00308228</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.00356293</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.00240326</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.00389099</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.00430298</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.00307083</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.00507736</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.00548172</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.00401688</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.0063324</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.00688171</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.00485611</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.00806808</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.00525284</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.00859833</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.00833511</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.00524902</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.00826645</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.00798798</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.00497818</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.00750732</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.00732422</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.00488663</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.00772095</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.00728226</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.0046196</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.00722122</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.00611496</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.00382233</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.00536346</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.00831223</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.00481415</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.00505066</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.00329971</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.00533676</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.00884628</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.00587845</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.00390244</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.00584793</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.00638199</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.00474167</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.00722504</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.0079422</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.00576782</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.00987625</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.0123711</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.0102119</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.020237</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.0259781</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>0.0218124</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>0.0405807</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>0.0546989</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>0.0417671</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>0.0689201</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>0.0735512</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>0.0561142</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>0.0809746</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>0.0562172</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>0.0343323</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>0.0522156</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>0.0320625</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>0.0103645</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3471,11 +3475,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2105763904"/>
-        <c:axId val="-2105780896"/>
+        <c:axId val="2099938560"/>
+        <c:axId val="2098376176"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2105763904"/>
+        <c:axId val="2099938560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3507,6 +3511,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3572,7 +3577,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2105780896"/>
+        <c:crossAx val="2098376176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3581,7 +3586,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2105780896"/>
+        <c:axId val="2098376176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3627,6 +3632,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3687,7 +3693,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2105763904"/>
+        <c:crossAx val="2099938560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3771,11 +3777,12 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1600"/>
-              <a:t>Enhanced image: CDF for green channel</a:t>
+              <a:t>Enhanced image2: CDF for green channel</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3827,774 +3834,774 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Green!$E$2:$E$257</c:f>
+              <c:f>Green!$H$2:$H$257</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="256"/>
                 <c:pt idx="0">
-                  <c:v>0.00139618</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.00139618</c:v>
+                  <c:v>0.0078125</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.00139618</c:v>
+                  <c:v>0.0117188</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0151711</c:v>
+                  <c:v>0.015625</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.019371</c:v>
+                  <c:v>0.0195312</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.022934</c:v>
+                  <c:v>0.0234375</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0266724</c:v>
+                  <c:v>0.0273438</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0288811</c:v>
+                  <c:v>0.03125</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0340042</c:v>
+                  <c:v>0.0351562</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0383263</c:v>
+                  <c:v>0.0390625</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.042778</c:v>
+                  <c:v>0.0429688</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.0458603</c:v>
+                  <c:v>0.046875</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.0494232</c:v>
+                  <c:v>0.0507812</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.0518265</c:v>
+                  <c:v>0.0546875</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.0557175</c:v>
+                  <c:v>0.0585938</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.0600204</c:v>
+                  <c:v>0.0625</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.0630913</c:v>
+                  <c:v>0.0664062</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.0681686</c:v>
+                  <c:v>0.0703125</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.0736504</c:v>
+                  <c:v>0.0742188</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.0776672</c:v>
+                  <c:v>0.078125</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.0776672</c:v>
+                  <c:v>0.0820312</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.0839996</c:v>
+                  <c:v>0.0859375</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.0839996</c:v>
+                  <c:v>0.0898438</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.0908813</c:v>
+                  <c:v>0.09375</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.0957375</c:v>
+                  <c:v>0.0976562</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.0957375</c:v>
+                  <c:v>0.101562</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.103806</c:v>
+                  <c:v>0.105469</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.109058</c:v>
+                  <c:v>0.109375</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.109058</c:v>
+                  <c:v>0.113281</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.109058</c:v>
+                  <c:v>0.117188</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.117657</c:v>
+                  <c:v>0.121094</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.117657</c:v>
+                  <c:v>0.125</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.125996</c:v>
+                  <c:v>0.128906</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.131245</c:v>
+                  <c:v>0.132812</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.131245</c:v>
+                  <c:v>0.136719</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.139511</c:v>
+                  <c:v>0.140625</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.139511</c:v>
+                  <c:v>0.144531</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.147499</c:v>
+                  <c:v>0.148438</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.147499</c:v>
+                  <c:v>0.152344</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.152477</c:v>
+                  <c:v>0.15625</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.159985</c:v>
+                  <c:v>0.160156</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.159985</c:v>
+                  <c:v>0.164062</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.167332</c:v>
+                  <c:v>0.167969</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.167332</c:v>
+                  <c:v>0.171875</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.172218</c:v>
+                  <c:v>0.175781</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.172218</c:v>
+                  <c:v>0.179688</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.179939</c:v>
+                  <c:v>0.183594</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.187222</c:v>
+                  <c:v>0.1875</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.187222</c:v>
+                  <c:v>0.191406</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.191841</c:v>
+                  <c:v>0.195312</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.199062</c:v>
+                  <c:v>0.199219</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.199062</c:v>
+                  <c:v>0.203125</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.205177</c:v>
+                  <c:v>0.207031</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.209</c:v>
+                  <c:v>0.210938</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.214363</c:v>
+                  <c:v>0.214844</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.214363</c:v>
+                  <c:v>0.21875</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.222652</c:v>
+                  <c:v>0.222656</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.222652</c:v>
+                  <c:v>0.226562</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.227467</c:v>
+                  <c:v>0.230469</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.232517</c:v>
+                  <c:v>0.234375</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.235779</c:v>
+                  <c:v>0.238281</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.241116</c:v>
+                  <c:v>0.242188</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.241116</c:v>
+                  <c:v>0.246094</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.249958</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.249958</c:v>
+                  <c:v>0.253906</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.255836</c:v>
+                  <c:v>0.257812</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.259777</c:v>
+                  <c:v>0.261719</c:v>
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>0.265625</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.265625</c:v>
+                  <c:v>0.269531</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.272007</c:v>
+                  <c:v>0.273438</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.276749</c:v>
+                  <c:v>0.277344</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.276749</c:v>
+                  <c:v>0.28125</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.283974</c:v>
+                  <c:v>0.285156</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.283974</c:v>
+                  <c:v>0.289062</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.29192</c:v>
+                  <c:v>0.292969</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.29192</c:v>
+                  <c:v>0.296875</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.297688</c:v>
+                  <c:v>0.300781</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.297688</c:v>
+                  <c:v>0.304688</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.307564</c:v>
+                  <c:v>0.308594</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.307564</c:v>
+                  <c:v>0.3125</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.307564</c:v>
+                  <c:v>0.316406</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.319935</c:v>
+                  <c:v>0.320312</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.319935</c:v>
+                  <c:v>0.324219</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.319935</c:v>
+                  <c:v>0.328125</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.330151</c:v>
+                  <c:v>0.332031</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.330151</c:v>
+                  <c:v>0.335938</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.330151</c:v>
+                  <c:v>0.339844</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.330151</c:v>
+                  <c:v>0.34375</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.330151</c:v>
+                  <c:v>0.347656</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.350388</c:v>
+                  <c:v>0.351562</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.350388</c:v>
+                  <c:v>0.355469</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.350388</c:v>
+                  <c:v>0.359375</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.350388</c:v>
+                  <c:v>0.363281</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.350388</c:v>
+                  <c:v>0.367188</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.350388</c:v>
+                  <c:v>0.371094</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.350388</c:v>
+                  <c:v>0.375</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.376366</c:v>
+                  <c:v>0.378906</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.376366</c:v>
+                  <c:v>0.382812</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.376366</c:v>
+                  <c:v>0.386719</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.376366</c:v>
+                  <c:v>0.390625</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.376366</c:v>
+                  <c:v>0.394531</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>0.398178</c:v>
+                  <c:v>0.398438</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>0.398178</c:v>
+                  <c:v>0.402344</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>0.398178</c:v>
+                  <c:v>0.40625</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>0.398178</c:v>
+                  <c:v>0.410156</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>0.398178</c:v>
+                  <c:v>0.414062</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>0.398178</c:v>
+                  <c:v>0.417969</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>0.398178</c:v>
+                  <c:v>0.421875</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>0.398178</c:v>
+                  <c:v>0.425781</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>0.398178</c:v>
+                  <c:v>0.429688</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>0.398178</c:v>
+                  <c:v>0.433594</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>0.398178</c:v>
+                  <c:v>0.4375</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>0.438766</c:v>
+                  <c:v>0.441406</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>0.438766</c:v>
+                  <c:v>0.445312</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>0.438766</c:v>
+                  <c:v>0.449219</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>0.438766</c:v>
+                  <c:v>0.453125</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>0.438766</c:v>
+                  <c:v>0.457031</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>0.438766</c:v>
+                  <c:v>0.460938</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>0.438766</c:v>
+                  <c:v>0.464844</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>0.438766</c:v>
+                  <c:v>0.46875</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>0.438766</c:v>
+                  <c:v>0.472656</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>0.438766</c:v>
+                  <c:v>0.476562</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>0.438766</c:v>
+                  <c:v>0.480469</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>0.438766</c:v>
+                  <c:v>0.484375</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>0.438766</c:v>
+                  <c:v>0.488281</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>0.438766</c:v>
+                  <c:v>0.492188</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>0.493465</c:v>
+                  <c:v>0.496094</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>0.493465</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>0.493465</c:v>
+                  <c:v>0.503906</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>0.493465</c:v>
+                  <c:v>0.507812</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>0.493465</c:v>
+                  <c:v>0.511719</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>0.493465</c:v>
+                  <c:v>0.515625</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>0.493465</c:v>
+                  <c:v>0.519531</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>0.493465</c:v>
+                  <c:v>0.523438</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>0.493465</c:v>
+                  <c:v>0.527344</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>0.493465</c:v>
+                  <c:v>0.53125</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>0.493465</c:v>
+                  <c:v>0.535156</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>0.535233</c:v>
+                  <c:v>0.539062</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>0.535233</c:v>
+                  <c:v>0.542969</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>0.535233</c:v>
+                  <c:v>0.546875</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>0.535233</c:v>
+                  <c:v>0.550781</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>0.535233</c:v>
+                  <c:v>0.554688</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>0.535233</c:v>
+                  <c:v>0.558594</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>0.535233</c:v>
+                  <c:v>0.5625</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>0.535233</c:v>
+                  <c:v>0.566406</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>0.535233</c:v>
+                  <c:v>0.570312</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>0.535233</c:v>
+                  <c:v>0.574219</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>0.535233</c:v>
+                  <c:v>0.578125</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>0.535233</c:v>
+                  <c:v>0.582031</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>0.535233</c:v>
+                  <c:v>0.585938</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>0.535233</c:v>
+                  <c:v>0.589844</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>0.535233</c:v>
+                  <c:v>0.59375</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>0.535233</c:v>
+                  <c:v>0.597656</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>0.535233</c:v>
+                  <c:v>0.601562</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>0.604153</c:v>
+                  <c:v>0.605469</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>0.604153</c:v>
+                  <c:v>0.609375</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>0.604153</c:v>
+                  <c:v>0.613281</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>0.604153</c:v>
+                  <c:v>0.617188</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>0.604153</c:v>
+                  <c:v>0.621094</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>0.604153</c:v>
+                  <c:v>0.625</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>0.604153</c:v>
+                  <c:v>0.628906</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>0.604153</c:v>
+                  <c:v>0.632812</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>0.604153</c:v>
+                  <c:v>0.636719</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>0.604153</c:v>
+                  <c:v>0.640625</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>0.604153</c:v>
+                  <c:v>0.644531</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>0.604153</c:v>
+                  <c:v>0.648438</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>0.604153</c:v>
+                  <c:v>0.652344</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>0.604153</c:v>
+                  <c:v>0.65625</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>0.604153</c:v>
+                  <c:v>0.660156</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>0.604153</c:v>
+                  <c:v>0.664062</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>0.604153</c:v>
+                  <c:v>0.667969</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>0.604153</c:v>
+                  <c:v>0.671875</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>0.604153</c:v>
+                  <c:v>0.675781</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>0.677704</c:v>
+                  <c:v>0.679688</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>0.677704</c:v>
+                  <c:v>0.683594</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>0.677704</c:v>
+                  <c:v>0.6875</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>0.677704</c:v>
+                  <c:v>0.691406</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>0.677704</c:v>
+                  <c:v>0.695312</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>0.677704</c:v>
+                  <c:v>0.699219</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>0.677704</c:v>
+                  <c:v>0.703125</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>0.677704</c:v>
+                  <c:v>0.707031</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>0.677704</c:v>
+                  <c:v>0.710938</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>0.677704</c:v>
+                  <c:v>0.714844</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>0.677704</c:v>
+                  <c:v>0.71875</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>0.677704</c:v>
+                  <c:v>0.722656</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>0.677704</c:v>
+                  <c:v>0.726562</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>0.677704</c:v>
+                  <c:v>0.730469</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>0.733818</c:v>
+                  <c:v>0.734375</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>0.733818</c:v>
+                  <c:v>0.738281</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>0.733818</c:v>
+                  <c:v>0.742188</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>0.733818</c:v>
+                  <c:v>0.746094</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>0.733818</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>0.733818</c:v>
+                  <c:v>0.753906</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>0.733818</c:v>
+                  <c:v>0.757812</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>0.733818</c:v>
+                  <c:v>0.761719</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>0.733818</c:v>
+                  <c:v>0.765625</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>0.733818</c:v>
+                  <c:v>0.769531</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>0.733818</c:v>
+                  <c:v>0.773438</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>0.733818</c:v>
+                  <c:v>0.777344</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>0.733818</c:v>
+                  <c:v>0.78125</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>0.733818</c:v>
+                  <c:v>0.785156</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>0.733818</c:v>
+                  <c:v>0.789062</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>0.733818</c:v>
+                  <c:v>0.792969</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>0.733818</c:v>
+                  <c:v>0.796875</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>0.733818</c:v>
+                  <c:v>0.800781</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>0.733818</c:v>
+                  <c:v>0.804688</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>0.733818</c:v>
+                  <c:v>0.808594</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>0.733818</c:v>
+                  <c:v>0.8125</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>0.814793</c:v>
+                  <c:v>0.816406</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>0.814793</c:v>
+                  <c:v>0.820312</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>0.814793</c:v>
+                  <c:v>0.824219</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>0.814793</c:v>
+                  <c:v>0.828125</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>0.814793</c:v>
+                  <c:v>0.832031</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>0.814793</c:v>
+                  <c:v>0.835938</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>0.814793</c:v>
+                  <c:v>0.839844</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>0.814793</c:v>
+                  <c:v>0.84375</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>0.814793</c:v>
+                  <c:v>0.847656</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>0.814793</c:v>
+                  <c:v>0.851562</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>0.814793</c:v>
+                  <c:v>0.855469</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>0.814793</c:v>
+                  <c:v>0.859375</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>0.814793</c:v>
+                  <c:v>0.863281</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>0.814793</c:v>
+                  <c:v>0.867188</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>0.87101</c:v>
+                  <c:v>0.871094</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>0.87101</c:v>
+                  <c:v>0.875</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>0.87101</c:v>
+                  <c:v>0.878906</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>0.87101</c:v>
+                  <c:v>0.882812</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>0.87101</c:v>
+                  <c:v>0.886719</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>0.87101</c:v>
+                  <c:v>0.890625</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>0.87101</c:v>
+                  <c:v>0.894531</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>0.87101</c:v>
+                  <c:v>0.898438</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>0.87101</c:v>
+                  <c:v>0.902344</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>0.905342</c:v>
+                  <c:v>0.90625</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>0.905342</c:v>
+                  <c:v>0.910156</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>0.905342</c:v>
+                  <c:v>0.914062</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>0.905342</c:v>
+                  <c:v>0.917969</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>0.905342</c:v>
+                  <c:v>0.921875</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>0.905342</c:v>
+                  <c:v>0.925781</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>0.905342</c:v>
+                  <c:v>0.929688</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>0.905342</c:v>
+                  <c:v>0.933594</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>0.905342</c:v>
+                  <c:v>0.9375</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>0.905342</c:v>
+                  <c:v>0.941406</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>0.905342</c:v>
+                  <c:v>0.945312</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>0.905342</c:v>
+                  <c:v>0.949219</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>0.905342</c:v>
+                  <c:v>0.953125</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>0.905342</c:v>
+                  <c:v>0.957031</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>0.957558</c:v>
+                  <c:v>0.960938</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>0.957558</c:v>
+                  <c:v>0.964844</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>0.957558</c:v>
+                  <c:v>0.96875</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>0.957558</c:v>
+                  <c:v>0.972656</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>0.957558</c:v>
+                  <c:v>0.976562</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>0.957558</c:v>
+                  <c:v>0.980469</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>0.957558</c:v>
+                  <c:v>0.984375</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>0.957558</c:v>
+                  <c:v>0.988281</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>0.98962</c:v>
+                  <c:v>0.992188</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>0.98962</c:v>
+                  <c:v>0.996094</c:v>
                 </c:pt>
                 <c:pt idx="255">
                   <c:v>1.0</c:v>
@@ -4613,11 +4620,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2111294688"/>
-        <c:axId val="-2111288832"/>
+        <c:axId val="2099954032"/>
+        <c:axId val="2098345536"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2111294688"/>
+        <c:axId val="2099954032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4649,6 +4656,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4714,7 +4722,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2111288832"/>
+        <c:crossAx val="2098345536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4723,7 +4731,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2111288832"/>
+        <c:axId val="2098345536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4769,6 +4777,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4829,7 +4838,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2111294688"/>
+        <c:crossAx val="2099954032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5756,11 +5765,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2117049104"/>
-        <c:axId val="-2111227344"/>
+        <c:axId val="2099974368"/>
+        <c:axId val="2098315680"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2117049104"/>
+        <c:axId val="2099974368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5858,7 +5867,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2111227344"/>
+        <c:crossAx val="2098315680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5867,7 +5876,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2111227344"/>
+        <c:axId val="2098315680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -5975,7 +5984,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2117049104"/>
+        <c:crossAx val="2099974368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6902,11 +6911,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2111128288"/>
-        <c:axId val="-2111096176"/>
+        <c:axId val="2098322400"/>
+        <c:axId val="2098299424"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2111128288"/>
+        <c:axId val="2098322400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7004,7 +7013,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2111096176"/>
+        <c:crossAx val="2098299424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7013,7 +7022,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2111096176"/>
+        <c:axId val="2098299424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7120,7 +7129,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2111128288"/>
+        <c:crossAx val="2098322400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8047,11 +8056,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2111164192"/>
-        <c:axId val="-2111153904"/>
+        <c:axId val="2098280064"/>
+        <c:axId val="2098275568"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2111164192"/>
+        <c:axId val="2098280064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8149,7 +8158,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2111153904"/>
+        <c:crossAx val="2098275568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8158,7 +8167,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2111153904"/>
+        <c:axId val="2098275568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="255.0"/>
@@ -8267,7 +8276,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2111164192"/>
+        <c:crossAx val="2098280064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8351,7 +8360,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1600"/>
-              <a:t>Enhanced image: PDF for blue channel</a:t>
+              <a:t>Enhanced image2: PDF for blue channel</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -8408,777 +8417,777 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Blue!$D$2:$D$257</c:f>
+              <c:f>Blue!$G$2:$G$257</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="256"/>
                 <c:pt idx="0">
-                  <c:v>0.00387192</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.00389099</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.00334167</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0051918</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.00402832</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.00364304</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.00495911</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.00623322</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.00376511</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0035553</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.00366211</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.00467682</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.00154114</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.00485229</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.00244141</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.00443649</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.0033226</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.00351334</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.00400543</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.00654602</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.00484848</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.00572968</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.00608444</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.0100212</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.00780106</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.00866318</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.0138931</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.0106583</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.0114784</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.0105591</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.0148048</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.00889969</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.00855255</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.00762939</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.0102425</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.0061264</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.00669861</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.00917816</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.00671387</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.0085144</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.00931931</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.0173225</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.0139465</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.0186157</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.0220375</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.0441322</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>0.0421906</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>0.0510025</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>0.0959358</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>0.0732765</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>0.0794487</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>0.0740395</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>0.0813332</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>0.0445938</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>0.0365715</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>0.0376587</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9194,11 +9203,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2110537632"/>
-        <c:axId val="-2110523920"/>
+        <c:axId val="2098306496"/>
+        <c:axId val="2098252672"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2110537632"/>
+        <c:axId val="2098306496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9296,7 +9305,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2110523920"/>
+        <c:crossAx val="2098252672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9305,7 +9314,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2110523920"/>
+        <c:axId val="2098252672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9412,7 +9421,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2110537632"/>
+        <c:crossAx val="2098306496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9496,7 +9505,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1600"/>
-              <a:t>Enhanced image: CDF for blue channel</a:t>
+              <a:t>Enhanced image2: CDF for blue channel</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -9553,774 +9562,774 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Blue!$E$2:$E$257</c:f>
+              <c:f>Blue!$H$2:$H$257</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="256"/>
                 <c:pt idx="0">
-                  <c:v>0.0038681</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.00775909</c:v>
+                  <c:v>0.0078125</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0111008</c:v>
+                  <c:v>0.0117188</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0111008</c:v>
+                  <c:v>0.015625</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0162926</c:v>
+                  <c:v>0.0195312</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0203209</c:v>
+                  <c:v>0.0234375</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0239639</c:v>
+                  <c:v>0.0273438</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.028923</c:v>
+                  <c:v>0.03125</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0351295</c:v>
+                  <c:v>0.0351562</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0388947</c:v>
+                  <c:v>0.0390625</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.04245</c:v>
+                  <c:v>0.0429688</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.0461235</c:v>
+                  <c:v>0.046875</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.0507851</c:v>
+                  <c:v>0.0507812</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.0523262</c:v>
+                  <c:v>0.0546875</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.0571823</c:v>
+                  <c:v>0.0585938</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.0596237</c:v>
+                  <c:v>0.0625</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.0640564</c:v>
+                  <c:v>0.0664062</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.067379</c:v>
+                  <c:v>0.0703125</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.0708923</c:v>
+                  <c:v>0.0742188</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.0748978</c:v>
+                  <c:v>0.078125</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.0814438</c:v>
+                  <c:v>0.0820312</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.0814438</c:v>
+                  <c:v>0.0859375</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.0862923</c:v>
+                  <c:v>0.0898438</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.0920219</c:v>
+                  <c:v>0.09375</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.0920219</c:v>
+                  <c:v>0.0976562</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.0981064</c:v>
+                  <c:v>0.101562</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.0981064</c:v>
+                  <c:v>0.105469</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.108128</c:v>
+                  <c:v>0.109375</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.108128</c:v>
+                  <c:v>0.113281</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.115929</c:v>
+                  <c:v>0.117188</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.115929</c:v>
+                  <c:v>0.121094</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.124592</c:v>
+                  <c:v>0.125</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.124592</c:v>
+                  <c:v>0.128906</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.124592</c:v>
+                  <c:v>0.132812</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.124592</c:v>
+                  <c:v>0.136719</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.138485</c:v>
+                  <c:v>0.140625</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.138485</c:v>
+                  <c:v>0.144531</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.138485</c:v>
+                  <c:v>0.148438</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.149143</c:v>
+                  <c:v>0.152344</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.149143</c:v>
+                  <c:v>0.15625</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.149143</c:v>
+                  <c:v>0.160156</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.160622</c:v>
+                  <c:v>0.164062</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.160622</c:v>
+                  <c:v>0.167969</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.171181</c:v>
+                  <c:v>0.171875</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.171181</c:v>
+                  <c:v>0.175781</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.171181</c:v>
+                  <c:v>0.179688</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.171181</c:v>
+                  <c:v>0.183594</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.185989</c:v>
+                  <c:v>0.1875</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.185989</c:v>
+                  <c:v>0.191406</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.194889</c:v>
+                  <c:v>0.195312</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.194889</c:v>
+                  <c:v>0.199219</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.194889</c:v>
+                  <c:v>0.203125</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.203442</c:v>
+                  <c:v>0.207031</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.203442</c:v>
+                  <c:v>0.210938</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.211071</c:v>
+                  <c:v>0.214844</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.211071</c:v>
+                  <c:v>0.21875</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.221313</c:v>
+                  <c:v>0.222656</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.221313</c:v>
+                  <c:v>0.226562</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.22744</c:v>
+                  <c:v>0.230469</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.234138</c:v>
+                  <c:v>0.234375</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.234138</c:v>
+                  <c:v>0.238281</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.234138</c:v>
+                  <c:v>0.242188</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.243317</c:v>
+                  <c:v>0.246094</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.250031</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.250031</c:v>
+                  <c:v>0.253906</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.250031</c:v>
+                  <c:v>0.257812</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.258545</c:v>
+                  <c:v>0.261719</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.258545</c:v>
+                  <c:v>0.265625</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.267864</c:v>
+                  <c:v>0.269531</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.267864</c:v>
+                  <c:v>0.273438</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.267864</c:v>
+                  <c:v>0.277344</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.267864</c:v>
+                  <c:v>0.28125</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.285187</c:v>
+                  <c:v>0.285156</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.285187</c:v>
+                  <c:v>0.289062</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.285187</c:v>
+                  <c:v>0.292969</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.285187</c:v>
+                  <c:v>0.296875</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.299133</c:v>
+                  <c:v>0.300781</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.299133</c:v>
+                  <c:v>0.304688</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.299133</c:v>
+                  <c:v>0.308594</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.299133</c:v>
+                  <c:v>0.3125</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.299133</c:v>
+                  <c:v>0.316406</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.317749</c:v>
+                  <c:v>0.320312</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.317749</c:v>
+                  <c:v>0.324219</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.317749</c:v>
+                  <c:v>0.328125</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.317749</c:v>
+                  <c:v>0.332031</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.317749</c:v>
+                  <c:v>0.335938</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.339787</c:v>
+                  <c:v>0.339844</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.339787</c:v>
+                  <c:v>0.34375</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.339787</c:v>
+                  <c:v>0.347656</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.339787</c:v>
+                  <c:v>0.351562</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.339787</c:v>
+                  <c:v>0.355469</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.339787</c:v>
+                  <c:v>0.359375</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.339787</c:v>
+                  <c:v>0.363281</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.339787</c:v>
+                  <c:v>0.367188</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.339787</c:v>
+                  <c:v>0.371094</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.339787</c:v>
+                  <c:v>0.375</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.339787</c:v>
+                  <c:v>0.378906</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.339787</c:v>
+                  <c:v>0.382812</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.383926</c:v>
+                  <c:v>0.386719</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.383926</c:v>
+                  <c:v>0.390625</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.383926</c:v>
+                  <c:v>0.394531</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>0.383926</c:v>
+                  <c:v>0.398438</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>0.383926</c:v>
+                  <c:v>0.402344</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>0.383926</c:v>
+                  <c:v>0.40625</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>0.383926</c:v>
+                  <c:v>0.410156</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>0.383926</c:v>
+                  <c:v>0.414062</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>0.383926</c:v>
+                  <c:v>0.417969</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>0.383926</c:v>
+                  <c:v>0.421875</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>0.383926</c:v>
+                  <c:v>0.425781</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>0.426117</c:v>
+                  <c:v>0.429688</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>0.426117</c:v>
+                  <c:v>0.433594</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>0.426117</c:v>
+                  <c:v>0.4375</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>0.426117</c:v>
+                  <c:v>0.441406</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>0.426117</c:v>
+                  <c:v>0.445312</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>0.426117</c:v>
+                  <c:v>0.449219</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>0.426117</c:v>
+                  <c:v>0.453125</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>0.426117</c:v>
+                  <c:v>0.457031</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>0.426117</c:v>
+                  <c:v>0.460938</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>0.426117</c:v>
+                  <c:v>0.464844</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>0.426117</c:v>
+                  <c:v>0.46875</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>0.426117</c:v>
+                  <c:v>0.472656</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>0.426117</c:v>
+                  <c:v>0.476562</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>0.477146</c:v>
+                  <c:v>0.480469</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>0.477146</c:v>
+                  <c:v>0.484375</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>0.477146</c:v>
+                  <c:v>0.488281</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>0.477146</c:v>
+                  <c:v>0.492188</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>0.477146</c:v>
+                  <c:v>0.496094</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>0.477146</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>0.477146</c:v>
+                  <c:v>0.503906</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>0.477146</c:v>
+                  <c:v>0.507812</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>0.477146</c:v>
+                  <c:v>0.511719</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>0.477146</c:v>
+                  <c:v>0.515625</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>0.477146</c:v>
+                  <c:v>0.519531</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>0.477146</c:v>
+                  <c:v>0.523438</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>0.477146</c:v>
+                  <c:v>0.527344</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>0.477146</c:v>
+                  <c:v>0.53125</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>0.477146</c:v>
+                  <c:v>0.535156</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>0.477146</c:v>
+                  <c:v>0.539062</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>0.477146</c:v>
+                  <c:v>0.542969</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>0.477146</c:v>
+                  <c:v>0.546875</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>0.477146</c:v>
+                  <c:v>0.550781</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>0.477146</c:v>
+                  <c:v>0.554688</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>0.477146</c:v>
+                  <c:v>0.558594</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>0.477146</c:v>
+                  <c:v>0.5625</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>0.477146</c:v>
+                  <c:v>0.566406</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>0.477146</c:v>
+                  <c:v>0.570312</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>0.573082</c:v>
+                  <c:v>0.574219</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>0.573082</c:v>
+                  <c:v>0.578125</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>0.573082</c:v>
+                  <c:v>0.582031</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>0.573082</c:v>
+                  <c:v>0.585938</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>0.573082</c:v>
+                  <c:v>0.589844</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>0.573082</c:v>
+                  <c:v>0.59375</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>0.573082</c:v>
+                  <c:v>0.597656</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>0.573082</c:v>
+                  <c:v>0.601562</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>0.573082</c:v>
+                  <c:v>0.605469</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>0.573082</c:v>
+                  <c:v>0.609375</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>0.573082</c:v>
+                  <c:v>0.613281</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>0.573082</c:v>
+                  <c:v>0.617188</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>0.573082</c:v>
+                  <c:v>0.621094</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>0.573082</c:v>
+                  <c:v>0.625</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>0.573082</c:v>
+                  <c:v>0.628906</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>0.573082</c:v>
+                  <c:v>0.632812</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>0.573082</c:v>
+                  <c:v>0.636719</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>0.573082</c:v>
+                  <c:v>0.640625</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>0.573082</c:v>
+                  <c:v>0.644531</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>0.646358</c:v>
+                  <c:v>0.648438</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>0.646358</c:v>
+                  <c:v>0.652344</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>0.646358</c:v>
+                  <c:v>0.65625</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>0.646358</c:v>
+                  <c:v>0.660156</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>0.646358</c:v>
+                  <c:v>0.664062</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>0.646358</c:v>
+                  <c:v>0.667969</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>0.646358</c:v>
+                  <c:v>0.671875</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>0.646358</c:v>
+                  <c:v>0.675781</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>0.646358</c:v>
+                  <c:v>0.679688</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>0.646358</c:v>
+                  <c:v>0.683594</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>0.646358</c:v>
+                  <c:v>0.6875</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>0.646358</c:v>
+                  <c:v>0.691406</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>0.646358</c:v>
+                  <c:v>0.695312</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>0.646358</c:v>
+                  <c:v>0.699219</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>0.646358</c:v>
+                  <c:v>0.703125</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>0.646358</c:v>
+                  <c:v>0.707031</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>0.646358</c:v>
+                  <c:v>0.710938</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>0.646358</c:v>
+                  <c:v>0.714844</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>0.646358</c:v>
+                  <c:v>0.71875</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>0.646358</c:v>
+                  <c:v>0.722656</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>0.725807</c:v>
+                  <c:v>0.726562</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>0.725807</c:v>
+                  <c:v>0.730469</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>0.725807</c:v>
+                  <c:v>0.734375</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>0.725807</c:v>
+                  <c:v>0.738281</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>0.725807</c:v>
+                  <c:v>0.742188</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>0.725807</c:v>
+                  <c:v>0.746094</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>0.725807</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>0.725807</c:v>
+                  <c:v>0.753906</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>0.725807</c:v>
+                  <c:v>0.757812</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>0.725807</c:v>
+                  <c:v>0.761719</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>0.725807</c:v>
+                  <c:v>0.765625</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>0.725807</c:v>
+                  <c:v>0.769531</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>0.725807</c:v>
+                  <c:v>0.773438</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>0.725807</c:v>
+                  <c:v>0.777344</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>0.725807</c:v>
+                  <c:v>0.78125</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>0.725807</c:v>
+                  <c:v>0.785156</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>0.725807</c:v>
+                  <c:v>0.789062</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>0.725807</c:v>
+                  <c:v>0.792969</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>0.725807</c:v>
+                  <c:v>0.796875</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>0.799847</c:v>
+                  <c:v>0.800781</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>0.799847</c:v>
+                  <c:v>0.804688</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>0.799847</c:v>
+                  <c:v>0.808594</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>0.799847</c:v>
+                  <c:v>0.8125</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>0.799847</c:v>
+                  <c:v>0.816406</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>0.799847</c:v>
+                  <c:v>0.820312</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>0.799847</c:v>
+                  <c:v>0.824219</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>0.799847</c:v>
+                  <c:v>0.828125</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>0.799847</c:v>
+                  <c:v>0.832031</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>0.799847</c:v>
+                  <c:v>0.835938</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>0.799847</c:v>
+                  <c:v>0.839844</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>0.799847</c:v>
+                  <c:v>0.84375</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>0.799847</c:v>
+                  <c:v>0.847656</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>0.799847</c:v>
+                  <c:v>0.851562</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>0.799847</c:v>
+                  <c:v>0.855469</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>0.799847</c:v>
+                  <c:v>0.859375</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>0.799847</c:v>
+                  <c:v>0.863281</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>0.799847</c:v>
+                  <c:v>0.867188</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>0.799847</c:v>
+                  <c:v>0.871094</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>0.799847</c:v>
+                  <c:v>0.875</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>0.799847</c:v>
+                  <c:v>0.878906</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>0.88118</c:v>
+                  <c:v>0.882812</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>0.88118</c:v>
+                  <c:v>0.886719</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>0.88118</c:v>
+                  <c:v>0.890625</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>0.88118</c:v>
+                  <c:v>0.894531</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>0.88118</c:v>
+                  <c:v>0.898438</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>0.88118</c:v>
+                  <c:v>0.902344</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>0.88118</c:v>
+                  <c:v>0.90625</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>0.88118</c:v>
+                  <c:v>0.910156</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>0.88118</c:v>
+                  <c:v>0.914062</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>0.88118</c:v>
+                  <c:v>0.917969</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>0.88118</c:v>
+                  <c:v>0.921875</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>0.925774</c:v>
+                  <c:v>0.925781</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>0.925774</c:v>
+                  <c:v>0.929688</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>0.925774</c:v>
+                  <c:v>0.933594</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>0.925774</c:v>
+                  <c:v>0.9375</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>0.925774</c:v>
+                  <c:v>0.941406</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>0.925774</c:v>
+                  <c:v>0.945312</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>0.925774</c:v>
+                  <c:v>0.949219</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>0.925774</c:v>
+                  <c:v>0.953125</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>0.925774</c:v>
+                  <c:v>0.957031</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>0.925774</c:v>
+                  <c:v>0.960938</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>0.962345</c:v>
+                  <c:v>0.964844</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>0.962345</c:v>
+                  <c:v>0.96875</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>0.962345</c:v>
+                  <c:v>0.972656</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>0.962345</c:v>
+                  <c:v>0.976562</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>0.962345</c:v>
+                  <c:v>0.980469</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>0.962345</c:v>
+                  <c:v>0.984375</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>0.962345</c:v>
+                  <c:v>0.988281</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>0.962345</c:v>
+                  <c:v>0.992188</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>0.962345</c:v>
+                  <c:v>0.996094</c:v>
                 </c:pt>
                 <c:pt idx="255">
                   <c:v>1.0</c:v>
@@ -10339,11 +10348,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2111055376"/>
-        <c:axId val="-2111049520"/>
+        <c:axId val="2098237808"/>
+        <c:axId val="2100026640"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2111055376"/>
+        <c:axId val="2098237808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10441,7 +10450,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2111049520"/>
+        <c:crossAx val="2100026640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10450,7 +10459,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2111049520"/>
+        <c:axId val="2100026640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10557,7 +10566,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2111055376"/>
+        <c:crossAx val="2098237808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11494,11 +11503,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2113859872"/>
-        <c:axId val="-2113886416"/>
+        <c:axId val="2099750352"/>
+        <c:axId val="2099754624"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2113859872"/>
+        <c:axId val="2099750352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11596,7 +11605,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2113886416"/>
+        <c:crossAx val="2099754624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11605,7 +11614,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2113886416"/>
+        <c:axId val="2099754624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11712,7 +11721,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2113859872"/>
+        <c:crossAx val="2099750352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12639,11 +12648,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2112506560"/>
-        <c:axId val="-2112501392"/>
+        <c:axId val="2098532816"/>
+        <c:axId val="2098496288"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2112506560"/>
+        <c:axId val="2098532816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12741,7 +12750,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2112501392"/>
+        <c:crossAx val="2098496288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12750,7 +12759,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2112501392"/>
+        <c:axId val="2098496288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="255.0"/>
@@ -12859,7 +12868,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2112506560"/>
+        <c:crossAx val="2098532816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13786,11 +13795,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2111537920"/>
-        <c:axId val="-2111633088"/>
+        <c:axId val="2099801648"/>
+        <c:axId val="2099807520"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2111537920"/>
+        <c:axId val="2099801648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13888,7 +13897,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2111633088"/>
+        <c:crossAx val="2099807520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13897,7 +13906,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2111633088"/>
+        <c:axId val="2099807520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14004,7 +14013,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2111537920"/>
+        <c:crossAx val="2099801648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14931,11 +14940,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2115443776"/>
-        <c:axId val="-2134980768"/>
+        <c:axId val="2099792816"/>
+        <c:axId val="2099822672"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2115443776"/>
+        <c:axId val="2099792816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15033,7 +15042,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2134980768"/>
+        <c:crossAx val="2099822672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15042,7 +15051,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2134980768"/>
+        <c:axId val="2099822672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15149,7 +15158,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2115443776"/>
+        <c:crossAx val="2099792816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16076,11 +16085,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2110572928"/>
-        <c:axId val="-2110552480"/>
+        <c:axId val="2075004128"/>
+        <c:axId val="2098465520"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2110572928"/>
+        <c:axId val="2075004128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16178,7 +16187,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2110552480"/>
+        <c:crossAx val="2098465520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -16187,7 +16196,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2110552480"/>
+        <c:axId val="2098465520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16294,7 +16303,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2110572928"/>
+        <c:crossAx val="2075004128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17221,11 +17230,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2105702016"/>
-        <c:axId val="-2105696848"/>
+        <c:axId val="2099854528"/>
+        <c:axId val="2079922240"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2105702016"/>
+        <c:axId val="2099854528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17323,7 +17332,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2105696848"/>
+        <c:crossAx val="2079922240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -17332,7 +17341,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2105696848"/>
+        <c:axId val="2079922240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17439,7 +17448,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2105702016"/>
+        <c:crossAx val="2099854528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17528,6 +17537,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -18365,11 +18375,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2137400880"/>
-        <c:axId val="-2106459408"/>
+        <c:axId val="2099906528"/>
+        <c:axId val="2099912400"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2137400880"/>
+        <c:axId val="2099906528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18401,6 +18411,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -18466,7 +18477,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2106459408"/>
+        <c:crossAx val="2099912400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -18475,7 +18486,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2106459408"/>
+        <c:axId val="2099912400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -18522,6 +18533,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -18582,7 +18594,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2137400880"/>
+        <c:crossAx val="2099906528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -18671,6 +18683,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -19508,11 +19521,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2106536352"/>
-        <c:axId val="-2115442112"/>
+        <c:axId val="2099868400"/>
+        <c:axId val="2099925104"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2106536352"/>
+        <c:axId val="2099868400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19544,6 +19557,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -19609,7 +19623,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2115442112"/>
+        <c:crossAx val="2099925104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -19618,7 +19632,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2115442112"/>
+        <c:axId val="2099925104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19664,6 +19678,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -19724,7 +19739,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2106536352"/>
+        <c:crossAx val="2099868400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -29504,7 +29519,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H257"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A55" workbookViewId="0">
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A21" workbookViewId="0">
       <selection activeCell="V186" sqref="V186"/>
     </sheetView>
   </sheetViews>
@@ -36203,8 +36218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H257"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:H1"/>
+    <sheetView showRuler="0" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="V88" sqref="V88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -42901,8 +42916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q257"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="S84" sqref="S84"/>
+    <sheetView showRuler="0" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="U92" sqref="U92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
